--- a/client/configs.pck.files/configs/translations_template/NameTown.xlsx
+++ b/client/configs.pck.files/configs/translations_template/NameTown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="9525"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="21075" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
   <si>
     <t>Wuwei</t>
   </si>
@@ -385,6 +385,36 @@
   </si>
   <si>
     <t>Куиаджун</t>
+  </si>
+  <si>
+    <t>Taoyuan</t>
+  </si>
+  <si>
+    <t>Таоюань</t>
+  </si>
+  <si>
+    <t>North Taoyuan Gully</t>
+  </si>
+  <si>
+    <t>Северный Овраг Таоюаня</t>
+  </si>
+  <si>
+    <t>South Taoyuan</t>
+  </si>
+  <si>
+    <t>Южный Таоюань</t>
+  </si>
+  <si>
+    <t>Jieqiao Bridge</t>
+  </si>
+  <si>
+    <t>Джикиэо-Бридж</t>
+  </si>
+  <si>
+    <t>Louyu Cape</t>
+  </si>
+  <si>
+    <t>Мыс Лую</t>
   </si>
 </sst>
 </file>
@@ -724,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,6 +1446,61 @@
       </c>
       <c r="C62" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3062</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3063</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3064</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3066</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
